--- a/Nirsa/Backend/Doc/Libro1.xlsx
+++ b/Nirsa/Backend/Doc/Libro1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proyectos_software\Nirsa\Backend\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A9689CF-E715-4D51-B169-5C78B058588C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02A06FDA-E756-4EDC-96EB-3692EBAA3098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{DD7A3EC1-1EE1-4F35-AA77-A519844A9995}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="69">
   <si>
     <t>Name proyect</t>
   </si>
@@ -203,7 +203,46 @@
     <t>zsdk-api</t>
   </si>
   <si>
-    <t>Requires printer connection</t>
+    <t>labelary</t>
+  </si>
+  <si>
+    <t>Api_labelary</t>
+  </si>
+  <si>
+    <t>org.apache.httpcomponents</t>
+  </si>
+  <si>
+    <t>httpclient</t>
+  </si>
+  <si>
+    <t>labelary2</t>
+  </si>
+  <si>
+    <t>Api_labelary2</t>
+  </si>
+  <si>
+    <t>com.googlecode.json-simple</t>
+  </si>
+  <si>
+    <t>json-simple</t>
+  </si>
+  <si>
+    <t>fr.w3blog</t>
+  </si>
+  <si>
+    <t>zebra-zpl</t>
+  </si>
+  <si>
+    <t>Python_barcode</t>
+  </si>
+  <si>
+    <t>barcode</t>
+  </si>
+  <si>
+    <t>Generate barcode and document manually</t>
+  </si>
+  <si>
+    <t>Requires printer connection not shure if generate image</t>
   </si>
 </sst>
 </file>
@@ -600,21 +639,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B9A0419-434C-4BE5-B041-7BEBE761F59C}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="57.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -793,7 +833,7 @@
       <c r="G6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="1" t="s">
         <v>34</v>
       </c>
       <c r="I6" t="s">
@@ -837,19 +877,16 @@
       <c r="C8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="D8" s="1"/>
       <c r="F8" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
         <v>43</v>
@@ -895,8 +932,12 @@
       <c r="E10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
@@ -911,16 +952,20 @@
         <v>48</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+        <v>64</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
@@ -976,7 +1021,93 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>55</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
